--- a/Telecomunicaciones/Unidad 4/Practicas/Cotización Antenas.xlsx
+++ b/Telecomunicaciones/Unidad 4/Practicas/Cotización Antenas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Juan TEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priet\Desktop\Telecom-AC\QUINTOJuanDeDiosPrieto\Telecomunicaciones\Unidad 4\Practicas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F62A867-54DD-4E66-8A47-491234849CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C9F88F-8946-477E-B07A-07750AACE552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{056F6806-A6D6-4593-BD8C-919DDE5EDD73}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <r>
       <rPr>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>IVA</t>
+  </si>
+  <si>
+    <t>Total+IVA</t>
   </si>
 </sst>
 </file>
@@ -470,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F7C81F-9268-4AE7-8B59-AB0CD821C024}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -630,6 +636,24 @@
         <v>4049574.8899999997</v>
       </c>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <f>E11*0.16</f>
+        <v>647931.98239999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <f>E11+E12</f>
+        <v>4697506.8723999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
